--- a/AEF_files/AEF_CMA6_Switzerland 2025 V1_comment.xlsx
+++ b/AEF_files/AEF_CMA6_Switzerland 2025 V1_comment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfccc365.sharepoint.com/sites/Mitigation/Paris Agreement Article 6/Article 6.2/03_CARP/consistency/AEF_files.synfixed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfccc365.sharepoint.com/sites/Mitigation/Paris Agreement Article 6/Article 6.2/03_CARP/consistency/AEF_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{5C2C80E2-D840-B347-92CB-A350A3C3450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{768DF305-C81E-AB49-8B1A-7A24B014BA56}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{5C2C80E2-D840-B347-92CB-A350A3C3450E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5758235F-9CA0-8D4C-864F-470410B6C709}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="4180" windowWidth="37900" windowHeight="16900" tabRatio="618" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="2860" windowWidth="44160" windowHeight="23380" tabRatio="618" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="174">
   <si>
     <t>Table</t>
   </si>
@@ -443,9 +443,6 @@
   </si>
   <si>
     <t>Action details</t>
-  </si>
-  <si>
-    <t>Unique identifier of the underlying unit from an underlying cooperative approach registry. This field should be reported as ‘Not applicable’ (NA) if the cooperative approach does not use an underlying cooperative approach registry.</t>
   </si>
   <si>
     <t>Unique identifier of the underlying cooperative approach registry as per common nomenclatures. This field should be reported as ‘Not applicable’ (NA) if the cooperative approach does not use an underlying cooperative approach registry.</t>
@@ -690,21 +687,6 @@
       </rPr>
       <t> </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique identifier of the ITMO as per decision 6/CMA.4, annex I, para. 5. </t>
-  </si>
-  <si>
-    <t>Refers to the first unique identifier of the ITMO block.</t>
-  </si>
-  <si>
-    <t>Refers to the last unique identifier of the ITMO block.</t>
-  </si>
-  <si>
-    <t>Refers to the first unique identifier of the underlying unit block.</t>
-  </si>
-  <si>
-    <t>Refers to the last unique identifier of the underlying unit block.</t>
   </si>
   <si>
     <r>
@@ -850,12 +832,6 @@
     <t>Energy generation</t>
   </si>
   <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
     <t>Registered compensation projects abroad</t>
   </si>
   <si>
@@ -871,9 +847,6 @@
     <t>Use: from 01/06/2022 to 31/12/2030</t>
   </si>
   <si>
-    <t>Use: from 1/10/2022 to 31/12/2030</t>
-  </si>
-  <si>
     <t>Use: from 01/04/2022 to 31/12/2030</t>
   </si>
   <si>
@@ -887,13 +860,37 @@
   </si>
   <si>
     <t>CHE01</t>
+  </si>
+  <si>
+    <t>Refers to the first unique identifier of the ITMO block as per decision 6/CMA.4, annex I, para. 5.</t>
+  </si>
+  <si>
+    <t>Refers to the last unique identifier of the ITMO block as per decision 6/CMA.4, annex I, para. 5.</t>
+  </si>
+  <si>
+    <t>Refers to the first unique identifier of the underlying unit block from an underlying cooperative approach registry. This field should be reported as ‘Not applicable’ (NA), or left blank, if the cooperative approach does not use an underlying cooperative approach registry.</t>
+  </si>
+  <si>
+    <t>Refers to the last unique identifier of the underlying unit block from an underlying cooperative approach registry. This field should be reported as ‘Not applicable’ (NA), or left blank, if the cooperative approach does not use an underlying cooperative approach registry.</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>Use: from 01/10/2022 to 31/12/2030</t>
+  </si>
+  <si>
+    <t>CA0003-THA01-THA-1,917-2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,12 +1056,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1207,7 +1198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1475,6 +1466,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1487,17 +1482,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1918,7 +1912,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1939,10 +1933,10 @@
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1959,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3F6B9B-E1BC-4D08-AE97-F15181187A83}">
-  <dimension ref="B1:C108"/>
+  <dimension ref="B1:C104"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A67" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1978,12 +1972,12 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="19" x14ac:dyDescent="0.25">
@@ -2017,7 +2011,7 @@
     </row>
     <row r="8" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B8" s="73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="74" t="s">
         <v>19</v>
@@ -2033,18 +2027,18 @@
     </row>
     <row r="10" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B10" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B11" s="73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
@@ -2065,16 +2059,16 @@
     </row>
     <row r="14" spans="2:3" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:3" ht="19" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2090,7 +2084,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -2114,7 +2108,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="28" x14ac:dyDescent="0.2">
@@ -2122,7 +2116,7 @@
         <v>66</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
@@ -2130,15 +2124,15 @@
         <v>28</v>
       </c>
       <c r="C25" s="74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="46" x14ac:dyDescent="0.2">
       <c r="B26" s="73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="42" x14ac:dyDescent="0.2">
@@ -2146,7 +2140,7 @@
         <v>61</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="28" x14ac:dyDescent="0.2">
@@ -2175,18 +2169,18 @@
     </row>
     <row r="31" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B31" s="73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B32" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="70" x14ac:dyDescent="0.2">
@@ -2194,23 +2188,23 @@
         <v>34</v>
       </c>
       <c r="C33" s="74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B34" s="73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B35" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="28" x14ac:dyDescent="0.2">
@@ -2218,7 +2212,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="56" x14ac:dyDescent="0.2">
@@ -2226,15 +2220,15 @@
         <v>46</v>
       </c>
       <c r="C37" s="74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C38" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="19" x14ac:dyDescent="0.25">
@@ -2268,7 +2262,7 @@
     </row>
     <row r="45" spans="2:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="79" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C45" s="80" t="s">
         <v>21</v>
@@ -2287,15 +2281,15 @@
         <v>24</v>
       </c>
       <c r="C47" s="74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B48" s="73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="28" x14ac:dyDescent="0.2">
@@ -2303,421 +2297,389 @@
         <v>58</v>
       </c>
       <c r="C49" s="74" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B50" s="73" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C50" s="74" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B51" s="73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" s="74" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B52" s="73" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C52" s="74" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B53" s="73" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C53" s="74" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="42" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B54" s="73" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="C54" s="74" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="73" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C55" s="74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="46" x14ac:dyDescent="0.2">
+      <c r="B56" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="42" x14ac:dyDescent="0.2">
+      <c r="B57" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B58" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="B59" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="70" x14ac:dyDescent="0.2">
+      <c r="B62" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="70" x14ac:dyDescent="0.2">
+      <c r="B63" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="84" x14ac:dyDescent="0.2">
+      <c r="B64" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="74" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="56" x14ac:dyDescent="0.2">
+      <c r="B65" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" s="74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="56" x14ac:dyDescent="0.2">
+      <c r="B66" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="42" x14ac:dyDescent="0.2">
+      <c r="B67" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="74" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="74" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" ht="46" x14ac:dyDescent="0.2">
-      <c r="B58" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="B59" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="74" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="B60" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="74" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="B61" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="74" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="74" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="B64" s="73" t="s">
+    <row r="68" spans="2:3" ht="42" x14ac:dyDescent="0.2">
+      <c r="B68" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="74" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" ht="70" x14ac:dyDescent="0.2">
-      <c r="B65" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" s="74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" ht="84" x14ac:dyDescent="0.2">
-      <c r="B66" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="C66" s="74" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="B67" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="74" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" ht="56" x14ac:dyDescent="0.2">
-      <c r="B68" s="73" t="s">
+      <c r="C69" s="76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="B77" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="B69" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" s="74" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="B70" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" s="74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" s="76" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="B74" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="73" t="s">
-        <v>57</v>
-      </c>
       <c r="C77" s="74" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="73" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C78" s="74" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B79" s="73" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C79" s="74" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B80" s="73" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C80" s="74" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B81" s="73" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C81" s="74" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B82" s="73" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C82" s="74" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="56" x14ac:dyDescent="0.2">
       <c r="B83" s="73" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C83" s="74" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" ht="56" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="73" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C84" s="74" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B85" s="73" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C85" s="74" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="42" x14ac:dyDescent="0.2">
       <c r="B86" s="73" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C86" s="74" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="B87" s="73" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="C87" s="74" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B88" s="73" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C88" s="74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="74" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="2:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="B89" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C89" s="74" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="42" x14ac:dyDescent="0.2">
-      <c r="B90" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C90" s="74" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="B91" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="C91" s="74" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="B92" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="C92" s="74" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B93" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C93" s="74" t="s">
+    <row r="90" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B93" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="C94" s="76" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="B97" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="11" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B101" s="11" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" ht="28" x14ac:dyDescent="0.2">
       <c r="B102" s="11" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B103" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C103" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B104" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="B105" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" ht="28" x14ac:dyDescent="0.2">
-      <c r="B106" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C107" s="76" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="B108" s="14"/>
+    <row r="103" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" s="76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="B104" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2730,7 +2692,7 @@
   <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2752,7 +2714,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -2760,7 +2722,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="103" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
@@ -2781,18 +2743,18 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
@@ -2813,15 +2775,15 @@
     </row>
     <row r="12" spans="2:3" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2840,7 +2802,7 @@
   <dimension ref="B3:U15"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2873,16 +2835,16 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="33"/>
       <c r="G5" s="34" t="s">
         <v>45</v>
@@ -2945,7 +2907,7 @@
         <v>28</v>
       </c>
       <c r="I7" s="61" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>61</v>
@@ -2960,19 +2922,19 @@
         <v>33</v>
       </c>
       <c r="N7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>91</v>
       </c>
       <c r="P7" s="21" t="s">
         <v>34</v>
       </c>
       <c r="Q7" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" s="61" t="s">
         <v>92</v>
-      </c>
-      <c r="R7" s="61" t="s">
-        <v>93</v>
       </c>
       <c r="S7" s="21" t="s">
         <v>35</v>
@@ -2981,7 +2943,7 @@
         <v>46</v>
       </c>
       <c r="U7" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:21" ht="88.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2992,10 +2954,10 @@
         <v>44876</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="104" t="s">
-        <v>167</v>
+        <v>148</v>
+      </c>
+      <c r="E8" s="104">
+        <v>1</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="40">
@@ -3005,37 +2967,37 @@
         <v>47</v>
       </c>
       <c r="I8" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="M8" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="N8" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="O8" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="K8" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="L8" s="83" t="s">
+      <c r="P8" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="M8" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="N8" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="O8" s="82" t="s">
+      <c r="Q8" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="R8" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="S8" s="97" t="s">
         <v>157</v>
-      </c>
-      <c r="P8" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q8" s="96" t="s">
-        <v>169</v>
-      </c>
-      <c r="R8" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="S8" s="97" t="s">
-        <v>165</v>
       </c>
       <c r="T8" s="98" t="s">
         <v>11</v>
@@ -3050,10 +3012,10 @@
         <v>44984</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="104" t="s">
-        <v>167</v>
+        <v>144</v>
+      </c>
+      <c r="E9" s="104">
+        <v>1</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="40">
@@ -3063,37 +3025,37 @@
         <v>47</v>
       </c>
       <c r="I9" s="83" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J9" s="83" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K9" s="95" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L9" s="83" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="M9" s="83" t="s">
         <v>48</v>
       </c>
       <c r="N9" s="83" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="O9" s="82" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P9" s="82" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="96" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="R9" s="82" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="S9" s="97" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="T9" s="83" t="s">
         <v>21</v>
@@ -3104,14 +3066,14 @@
       <c r="B10" s="40">
         <v>5005</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="114">
         <v>45054</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="104" t="s">
-        <v>167</v>
+        <v>153</v>
+      </c>
+      <c r="E10" s="104">
+        <v>1</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40">
@@ -3121,37 +3083,37 @@
         <v>47</v>
       </c>
       <c r="I10" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="M10" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="N10" s="83" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="K10" s="83" t="s">
+      <c r="P10" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="L10" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="M10" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="N10" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="O10" s="82" t="s">
+      <c r="R10" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="S10" s="97" t="s">
         <v>157</v>
-      </c>
-      <c r="P10" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="R10" s="82" t="s">
-        <v>158</v>
-      </c>
-      <c r="S10" s="97" t="s">
-        <v>165</v>
       </c>
       <c r="T10" s="99" t="s">
         <v>11</v>
@@ -3276,9 +3238,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <ignoredErrors>
-    <ignoredError sqref="E8:E10" numberStoredAsText="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
@@ -3287,8 +3246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903CFF46-A00D-4851-8A69-F36031122945}">
   <dimension ref="B3:AH13"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AJ8" sqref="AJ8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3448,17 +3407,17 @@
       <c r="V6" s="38"/>
       <c r="W6" s="38"/>
       <c r="X6" s="36"/>
-      <c r="Y6" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z6" s="108"/>
+      <c r="Y6" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" s="110"/>
       <c r="AA6" s="40"/>
-      <c r="AB6" s="107" t="s">
+      <c r="AB6" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="107"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="109"/>
+      <c r="AE6" s="109"/>
       <c r="AF6" s="36"/>
       <c r="AG6" s="23"/>
       <c r="AH6" s="23"/>
@@ -3510,7 +3469,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>57</v>
@@ -3519,7 +3478,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>58</v>
@@ -3535,26 +3494,26 @@
         <v>56</v>
       </c>
       <c r="M8" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="41" t="s">
         <v>101</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>102</v>
       </c>
       <c r="O8" s="42"/>
       <c r="P8" s="21" t="s">
         <v>28</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R8" s="21" t="s">
         <v>61</v>
       </c>
       <c r="S8" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="T8" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="T8" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="U8" s="42"/>
       <c r="V8" s="21" t="s">
@@ -3565,30 +3524,30 @@
       </c>
       <c r="X8" s="21"/>
       <c r="Y8" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z8" s="21" t="s">
         <v>62</v>
       </c>
       <c r="AA8" s="21"/>
       <c r="AB8" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE8" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="AC8" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD8" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>100</v>
       </c>
       <c r="AF8" s="21"/>
       <c r="AG8" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH8" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:34" ht="56" x14ac:dyDescent="0.2">
@@ -3600,22 +3559,22 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F9" s="24">
         <v>5002</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H9" s="100" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I9" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" s="99" t="s">
         <v>173</v>
-      </c>
-      <c r="J9" s="99" t="s">
-        <v>174</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -3625,18 +3584,12 @@
       <c r="P9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>151</v>
-      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
       <c r="S9" s="24">
         <v>1916</v>
       </c>
-      <c r="T9" s="24" t="s">
-        <v>151</v>
-      </c>
+      <c r="T9" s="24"/>
       <c r="U9" s="24"/>
       <c r="V9" s="24" t="s">
         <v>55</v>
@@ -3646,10 +3599,10 @@
       </c>
       <c r="X9" s="24"/>
       <c r="Y9" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z9" s="24" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AA9" s="46"/>
       <c r="AB9" s="24"/>
@@ -3659,7 +3612,7 @@
       <c r="AF9" s="24"/>
       <c r="AG9" s="86"/>
       <c r="AH9" s="24" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.2">
@@ -3839,27 +3792,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
       <c r="L3" s="50"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
     </row>
     <row r="4" spans="2:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="66"/>
@@ -3894,16 +3847,16 @@
       <c r="C5" s="23"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="107"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="107" t="s">
+      <c r="I5" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
       <c r="L5" s="18"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
@@ -3924,10 +3877,10 @@
       <c r="G6" s="37"/>
       <c r="H6" s="18"/>
       <c r="I6" s="23"/>
-      <c r="J6" s="107" t="s">
+      <c r="J6" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="107"/>
+      <c r="K6" s="109"/>
       <c r="L6" s="18"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
@@ -3947,7 +3900,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="61" t="s">
         <v>58</v>
@@ -3963,26 +3916,26 @@
         <v>56</v>
       </c>
       <c r="J7" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="41" t="s">
         <v>101</v>
-      </c>
-      <c r="K7" s="41" t="s">
-        <v>102</v>
       </c>
       <c r="L7" s="42"/>
       <c r="M7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O7" s="21" t="s">
         <v>61</v>
       </c>
       <c r="P7" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="21" t="s">
         <v>96</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="R7" s="42"/>
       <c r="S7" s="21" t="s">
@@ -3995,22 +3948,22 @@
     </row>
     <row r="8" spans="2:21" ht="56" x14ac:dyDescent="0.2">
       <c r="B8" s="57" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C8" s="24">
         <v>5002</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E8" s="100" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G8" s="99" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -4021,10 +3974,10 @@
         <v>47</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P8" s="24">
         <v>1916</v>
@@ -4445,14 +4398,14 @@
     <row r="34" spans="2:21" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="M3:T3"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="S4:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4464,7 +4417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E258A93-B716-420F-9DF7-C0F95D806679}">
   <dimension ref="C8:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -4484,16 +4437,16 @@
   <sheetData>
     <row r="8" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="51"/>
-      <c r="D9" s="107" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
+      <c r="D9" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="52"/>
       <c r="H9" s="51"/>
       <c r="I9" s="51"/>
@@ -4502,28 +4455,28 @@
     </row>
     <row r="10" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="21" t="s">
-        <v>106</v>
-      </c>
       <c r="J10" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10" s="53"/>
     </row>
@@ -4532,19 +4485,19 @@
         <v>44984</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="113">
+        <v>163</v>
+      </c>
+      <c r="F11" s="106">
         <v>107551000061</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H11" s="83" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I11" s="102"/>
       <c r="J11" s="102"/>
@@ -4566,7 +4519,7 @@
       <c r="F13" s="17"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="G15" s="112"/>
+      <c r="G15" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4579,35 +4532,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
-    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d0671dbe340d15fdce5ab7e9f4c491">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2feafd61044eb4abe44eb47c2e62f3e5" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
@@ -4889,41 +4813,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
-    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
+    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CEAA5EF-4F05-4A07-8823-4301E0C5CA53}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9846E218-2C67-4B45-A7CB-841EE05F366A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8400BA00-FEBE-4153-A395-F5E37B40D639}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4941,4 +4860,38 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17AB3B8A-2D8D-4EE0-964D-A16E3E636991}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
+    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CEAA5EF-4F05-4A07-8823-4301E0C5CA53}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9846E218-2C67-4B45-A7CB-841EE05F366A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>